--- a/Chemical name.xlsx
+++ b/Chemical name.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_data\problem\模型迁移\github-model-transfer\Raman-model-transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595A51A-B859-433C-86B4-2B249949B0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D254031-7AF9-4450-B753-FF4BC93E25FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5512127-508D-431F-8A94-B5A33F9B33B8}"/>
+    <workbookView xWindow="8925" yWindow="2490" windowWidth="19245" windowHeight="12990" xr2:uid="{D5512127-508D-431F-8A94-B5A33F9B33B8}"/>
   </bookViews>
   <sheets>
     <sheet name="English name" sheetId="2" r:id="rId1"/>
@@ -334,151 +334,151 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>10_Ethyl Alcohol-1-propanol#2-3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>11_乙醇-环己烷#2-3.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>11_Ethyl Alcohol-cyclohexane#2-3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>12_乙醇-正丙醇#4-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>12_Ethyl Alcohol-1-propanol#4-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>13_Ethyl Alcohol-Acetonitrile-cyclohexane#4-1-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>14_乙醇-乙腈#2-3.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>14_Ethyl Alcohol-Acetonitrile#2-3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>15_甲醇-乙醇-乙腈-正丙醇-戊二醛#1-1-1-1-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>15_methanol-Ethyl Alcohol-Acetonitrile-1-propanol-Glutaric dialdehyde#1-1-1-1-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>16_Ethyl Alcohol-Acetonitrile-Tetraethyl orthosilicate#1-1-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>17_乙醇-乙腈-正戊醇#1-1-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>17_Ethyl Alcohol-Acetonitrile-pentanol#1-1-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>18_乙醇-乙腈#4-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>18_Ethyl Alcohol-Acetonitrile#4-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>19_乙醇-乙腈-环己烷#1-1-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>19_Ethyl Alcohol-Acetonitrile-cyclohexane#1-1-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1_甲醇-乙醇#3-2.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>1_methanol-Ethyl Alcohol#3-2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>20_乙醇-乙腈-正硅酸四乙酯-正丙醇-环己烷#1-1-1-1-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>20_Ethyl Alcohol-Acetonitrile-Tetraethyl orthosilicate-1-propanol-cyclohexane#1-1-1-1-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>2_正丙醇-乙醇-乙腈-正硅酸四乙酯#1-2-1-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>2_1-propanol-Ethyl Alcohol-Acetonitrile-Tetraethyl orthosilicate#1-2-1-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>3_乙醇-正戊醇#4-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>3_Ethyl Alcohol-pentanol#4-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>4_乙醇-正硅酸四乙酯#2-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>4_Ethyl Alcohol-Tetraethyl orthosilicate#2-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>5_乙醇-环己烷#4-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>5_Ethyl Alcohol-cyclohexane#4-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>6_乙醇-环己烷#3-2.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>6_Ethyl Alcohol-cyclohexane#3-2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>7_乙醇-乙腈#3-2.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>7_Ethyl Alcohol-Acetonitrile#3-2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>8_乙醇-乙腈-戊二醛#1-1-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>8_Ethyl Alcohol-Acetonitrile-Glutaric dialdehyde#1-1-1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>9_乙醇-甲醇#4-1.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>9_Ethyl Alcohol-methanol#4-1</t>
+    <t>Ethyl Alcohol-1-propanol#2-3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-cyclohexane#2-3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-1-propanol#4-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Acetonitrile-cyclohexane#4-1-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Acetonitrile#2-3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>methanol-Ethyl Alcohol-Acetonitrile-1-propanol-Glutaric dialdehyde#1-1-1-1-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Acetonitrile-Tetraethyl orthosilicate#1-1-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Acetonitrile-pentanol#1-1-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Acetonitrile#4-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>methanol-Ethyl Alcohol#3-2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Acetonitrile-cyclohexane#1-1-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Acetonitrile-Tetraethyl orthosilicate-1-propanol-cyclohexane#1-1-1-1-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-propanol-Ethyl Alcohol-Acetonitrile-Tetraethyl orthosilicate#1-2-1-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-pentanol#4-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Tetraethyl orthosilicate#2-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-cyclohexane#4-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-cyclohexane#3-2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Acetonitrile#3-2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-Acetonitrile-Glutaric dialdehyde#1-1-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethyl Alcohol-methanol#4-1</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1482,17 +1482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857410D3-EB0A-4AB4-8FB2-A2DB97AFAA7C}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="58.08203125" customWidth="1"/>
+    <col min="1" max="1" width="58.125" customWidth="1"/>
     <col min="2" max="2" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1516,135 +1516,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="B19" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1652,39 +1652,39 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>42</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>46</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>50</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>52</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>6</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>59</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>62</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>65</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>67</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>69</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>71</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>73</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>75</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>77</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>79</v>
       </c>

--- a/Chemical name.xlsx
+++ b/Chemical name.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study_data\problem\模型迁移\github-model-transfer\Raman-model-transfer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D254031-7AF9-4450-B753-FF4BC93E25FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21DC40-F4BB-4751-A4EF-76E3309AE7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8925" yWindow="2490" windowWidth="19245" windowHeight="12990" xr2:uid="{D5512127-508D-431F-8A94-B5A33F9B33B8}"/>
   </bookViews>
@@ -322,10 +322,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>resorcinol</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>香豆素.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -479,6 +475,10 @@
   </si>
   <si>
     <t>Ethyl Alcohol-methanol#4-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resorcinol</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1482,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857410D3-EB0A-4AB4-8FB2-A2DB97AFAA7C}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1521,23 +1521,23 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1545,23 +1545,23 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1569,79 +1569,79 @@
         <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1654,34 +1654,34 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1953,15 +1953,15 @@
         <v>77</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
